--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/137.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/137.xlsx
@@ -479,13 +479,13 @@
         <v>0.02010432445624105</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.522876230264098</v>
+        <v>-2.116416552389717</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2141416628076435</v>
+        <v>-0.09584937731438796</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00518154310622085</v>
+        <v>-0.05222968027539709</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.01334526465256439</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.646005796644642</v>
+        <v>-2.31117581296823</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2657135056300756</v>
+        <v>-0.1507379687769759</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01255738985631967</v>
+        <v>-0.04498504247698366</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.001133068792797233</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.8390536198042</v>
+        <v>-2.472252814094009</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2039596470300115</v>
+        <v>-0.09379455455442375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006407483666484447</v>
+        <v>-0.05465899433088461</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.02498207292382791</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.017515189979328</v>
+        <v>-2.568908773500304</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1330825949471499</v>
+        <v>0.002297228225879284</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01610888195083906</v>
+        <v>-0.05116719845650198</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.0708555647069037</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.148878685495971</v>
+        <v>-2.523477612051371</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1018150114536607</v>
+        <v>-0.009355306303392362</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.003507996775408731</v>
+        <v>-0.08828758076406554</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.131606354958431</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.953027666906079</v>
+        <v>-2.186434226239041</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01782527474139264</v>
+        <v>0.1163554443811499</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02924840309002247</v>
+        <v>-0.06122418049540071</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1947819325668163</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.712996434175265</v>
+        <v>-1.901138950324723</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0403722123987381</v>
+        <v>0.1088698879154209</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05071273154614012</v>
+        <v>-0.06235924287482884</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2457016635978855</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.197733006775799</v>
+        <v>-1.431453065336608</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08175045095067984</v>
+        <v>0.1166030721759096</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05369768333814512</v>
+        <v>-0.07395200517777918</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2669197673008656</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.718509792165375</v>
+        <v>-0.9585047146485689</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1345811700499199</v>
+        <v>0.05455401196829939</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1311643184125927</v>
+        <v>0.02703439103342702</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2388487502659842</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.176694078024359</v>
+        <v>-0.4425410983121958</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2446645331548234</v>
+        <v>-0.02916918940822977</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2122191168283491</v>
+        <v>0.09877082134982661</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1419267129628526</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6255355989569156</v>
+        <v>0.1062386901159298</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5803032716486028</v>
+        <v>-0.2795422371339843</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2812133437820895</v>
+        <v>0.1880510100122073</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02714136423708227</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1018955209829915</v>
+        <v>0.592970028257122</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8700637768373936</v>
+        <v>-0.3919994115127912</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3515609847175337</v>
+        <v>0.2907958075344781</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2554072369974444</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5656937656722721</v>
+        <v>1.184867549007275</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.151160358812978</v>
+        <v>-0.641614327837348</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5626575805434203</v>
+        <v>0.4846566549561414</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5186789083665538</v>
       </c>
       <c r="E15" t="n">
-        <v>1.046586333174955</v>
+        <v>1.66485560414634</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.497697159958892</v>
+        <v>-0.9527110781401391</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6306960617966964</v>
+        <v>0.5677894531175784</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7970873873250697</v>
       </c>
       <c r="E16" t="n">
-        <v>1.608594081240393</v>
+        <v>2.215374276423875</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.759807521187986</v>
+        <v>-1.173457838913534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6938307808089181</v>
+        <v>0.6322586785705249</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.073565230332868</v>
       </c>
       <c r="E17" t="n">
-        <v>2.092611882290733</v>
+        <v>2.665159059650377</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.135263101301232</v>
+        <v>-1.523116214083044</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7414832733625671</v>
+        <v>0.7014340519652594</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.333596068154762</v>
       </c>
       <c r="E18" t="n">
-        <v>2.418774283229878</v>
+        <v>2.977827575537148</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.47787933233701</v>
+        <v>-1.856944098087558</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9346603997055958</v>
+        <v>0.860256786269777</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.566360167571214</v>
       </c>
       <c r="E19" t="n">
-        <v>2.535311826936129</v>
+        <v>3.113663009455708</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.829153997299902</v>
+        <v>-2.197236531344926</v>
       </c>
       <c r="G19" t="n">
-        <v>1.02239626921445</v>
+        <v>0.9570908425136824</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.761148518125274</v>
       </c>
       <c r="E20" t="n">
-        <v>2.830791558310786</v>
+        <v>3.397118764608953</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.141144586354468</v>
+        <v>-2.455145758952579</v>
       </c>
       <c r="G20" t="n">
-        <v>1.144345029164811</v>
+        <v>1.070103654629007</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.913513555656266</v>
       </c>
       <c r="E21" t="n">
-        <v>3.102336782488496</v>
+        <v>3.628517790001753</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.437462653699315</v>
+        <v>-2.718296034935529</v>
       </c>
       <c r="G21" t="n">
-        <v>1.332061535688914</v>
+        <v>1.219614729961612</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.020382196519933</v>
       </c>
       <c r="E22" t="n">
-        <v>3.238930957728931</v>
+        <v>3.714273856993883</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.672523337874971</v>
+        <v>-2.954109056265954</v>
       </c>
       <c r="G22" t="n">
-        <v>1.330470862563955</v>
+        <v>1.176278646037309</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.081203132794488</v>
       </c>
       <c r="E23" t="n">
-        <v>3.378595473656115</v>
+        <v>3.833064447680042</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.904360591274014</v>
+        <v>-3.214913272365792</v>
       </c>
       <c r="G23" t="n">
-        <v>1.501610335014723</v>
+        <v>1.33675304553446</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.097625469440546</v>
       </c>
       <c r="E24" t="n">
-        <v>3.427511111931309</v>
+        <v>3.81971084438332</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.042560992616664</v>
+        <v>-3.315416916361352</v>
       </c>
       <c r="G24" t="n">
-        <v>1.539818205888928</v>
+        <v>1.416930778017053</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.074825947951637</v>
       </c>
       <c r="E25" t="n">
-        <v>3.471912117357214</v>
+        <v>3.848197799511515</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.088432516794209</v>
+        <v>-3.415662563910648</v>
       </c>
       <c r="G25" t="n">
-        <v>1.56910476702434</v>
+        <v>1.47638645550713</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.01987031514522</v>
       </c>
       <c r="E26" t="n">
-        <v>3.301478323129444</v>
+        <v>3.697493719335191</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.103640583908584</v>
+        <v>-3.447065549794375</v>
       </c>
       <c r="G26" t="n">
-        <v>1.541639429029698</v>
+        <v>1.494058297195228</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.941096674880866</v>
       </c>
       <c r="E27" t="n">
-        <v>3.390462090342925</v>
+        <v>3.67191120646967</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.039269555684593</v>
+        <v>-3.488747528843337</v>
       </c>
       <c r="G27" t="n">
-        <v>1.485628583521893</v>
+        <v>1.457776555818193</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.847886573801605</v>
       </c>
       <c r="E28" t="n">
-        <v>3.256529608935819</v>
+        <v>3.534621721657743</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.912436550954835</v>
+        <v>-3.424283487716143</v>
       </c>
       <c r="G28" t="n">
-        <v>1.417924948720152</v>
+        <v>1.395282863437234</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.746638868577565</v>
       </c>
       <c r="E29" t="n">
-        <v>3.081701946152756</v>
+        <v>3.30125021279634</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.878475252792488</v>
+        <v>-3.371927286903413</v>
       </c>
       <c r="G29" t="n">
-        <v>1.385367992916017</v>
+        <v>1.36979854780067</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.644520932972153</v>
       </c>
       <c r="E30" t="n">
-        <v>2.910073927239913</v>
+        <v>3.131272639234778</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.626907065500645</v>
+        <v>-3.149408706564066</v>
       </c>
       <c r="G30" t="n">
-        <v>1.268688947612761</v>
+        <v>1.277270531534606</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.542972106443906</v>
       </c>
       <c r="E31" t="n">
-        <v>2.785562280605857</v>
+        <v>2.976810227848332</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.591964404969411</v>
+        <v>-3.137820823626529</v>
       </c>
       <c r="G31" t="n">
-        <v>1.101411492887161</v>
+        <v>1.130721840928966</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.444997435126074</v>
       </c>
       <c r="E32" t="n">
-        <v>2.551147807387216</v>
+        <v>2.682996799762551</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.465257043899062</v>
+        <v>-2.9759018270065</v>
       </c>
       <c r="G32" t="n">
-        <v>1.064987639992444</v>
+        <v>1.084244055598734</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.34893175985775</v>
       </c>
       <c r="E33" t="n">
-        <v>2.277269026700268</v>
+        <v>2.447116077237006</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.385140913404821</v>
+        <v>-2.91089312671497</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8917982241471261</v>
+        <v>0.9398794909365289</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.254209751790654</v>
       </c>
       <c r="E34" t="n">
-        <v>2.043226605094442</v>
+        <v>2.178894920747573</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.131007704706915</v>
+        <v>-2.611323267282041</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7652061380846829</v>
+        <v>0.8160259487126845</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.15911120744062</v>
       </c>
       <c r="E35" t="n">
-        <v>1.852428779311408</v>
+        <v>2.019465315369692</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.041597907900725</v>
+        <v>-2.50838146538118</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7292391157768499</v>
+        <v>0.7597607662826762</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.062778114241131</v>
       </c>
       <c r="E36" t="n">
-        <v>1.646623245356311</v>
+        <v>1.7746358366749</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.820031413737782</v>
+        <v>-2.298135708899357</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6278318742986875</v>
+        <v>0.6387671421121034</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9664447506402738</v>
       </c>
       <c r="E37" t="n">
-        <v>1.380794197761084</v>
+        <v>1.518639930230205</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.76119358589325</v>
+        <v>-2.255209491669829</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6302245931135702</v>
+        <v>0.6358992950900341</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8710062319121742</v>
       </c>
       <c r="E38" t="n">
-        <v>1.16397105670121</v>
+        <v>1.283452077593447</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.651614627188017</v>
+        <v>-2.084537828378127</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5954280085844167</v>
+        <v>0.5805300861341687</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7788760138129529</v>
       </c>
       <c r="E39" t="n">
-        <v>1.008597423823702</v>
+        <v>1.138861842280846</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.52091960473309</v>
+        <v>-1.976500139223036</v>
       </c>
       <c r="G39" t="n">
-        <v>0.469950857519069</v>
+        <v>0.4248191671224197</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6891516901959379</v>
       </c>
       <c r="E40" t="n">
-        <v>0.768280138295493</v>
+        <v>0.8967428510735225</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.493522577854244</v>
+        <v>-1.969995335205518</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4034011926377349</v>
+        <v>0.3565342779157373</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6024619832766942</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5092443871978859</v>
+        <v>0.6161878786588904</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.366246160792489</v>
+        <v>-1.864147261279953</v>
       </c>
       <c r="G41" t="n">
-        <v>0.391264991011802</v>
+        <v>0.3557627282596511</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5172382135964665</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2398814592015805</v>
+        <v>0.3970067842627082</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.346482291183145</v>
+        <v>-1.841011140248869</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3835104595276272</v>
+        <v>0.3303997868377598</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4345385937216463</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1082020247743818</v>
+        <v>0.2667185788991718</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.233151100474558</v>
+        <v>-1.71639885670315</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3049709739827798</v>
+        <v>0.2397771627658566</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3557415322935694</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.09172387385686409</v>
+        <v>0.09238007249886045</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.162070334885663</v>
+        <v>-1.664762972209659</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3132378388354229</v>
+        <v>0.2485984455136638</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2836573970772007</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1329105973163069</v>
+        <v>0.02378290390568312</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.147684135883206</v>
+        <v>-1.663629739592261</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2788242844912673</v>
+        <v>0.1961556359648355</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2208414096807439</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.2934960023766264</v>
+        <v>-0.07580982355915376</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.149397403064192</v>
+        <v>-1.655231131873441</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1830283132391871</v>
+        <v>0.1121317436946696</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1682732509447936</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.3863576452528717</v>
+        <v>-0.1761478740909768</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.086677430112159</v>
+        <v>-1.599258711368271</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1676540427403988</v>
+        <v>0.06725500014090095</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.127098270940883</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.3910400062882665</v>
+        <v>-0.1559735278661813</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.982243152315296</v>
+        <v>-1.488065902552363</v>
       </c>
       <c r="G48" t="n">
-        <v>0.101016549281613</v>
+        <v>0.0081494171192769</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.09625573777736866</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.4830654479166903</v>
+        <v>-0.2264358338888542</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.892176775900587</v>
+        <v>-1.425492920483427</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07651237617258297</v>
+        <v>-0.003128016193794691</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.0751041454378137</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5322037072388975</v>
+        <v>-0.2653121778247753</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.846229621559125</v>
+        <v>-1.400857614428896</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02604692945777191</v>
+        <v>-0.0691574187378627</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.06152426767840537</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.5978512994393212</v>
+        <v>-0.374559949602534</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.724429072333215</v>
+        <v>-1.23697619803143</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02456360237192064</v>
+        <v>-0.0644781073058516</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05316026772423267</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.7042525714186967</v>
+        <v>-0.4370036284880002</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.699843169853501</v>
+        <v>-1.190173934901168</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.04646471003877446</v>
+        <v>-0.1514717033511039</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04749703977049822</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.771305420858348</v>
+        <v>-0.5314211790106298</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.651024508965909</v>
+        <v>-1.140035405669093</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.04798524228590736</v>
+        <v>-0.1609736575741618</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.04275799456225794</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.8677277806454484</v>
+        <v>-0.6497897045884788</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.615945531163421</v>
+        <v>-1.077675285916342</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1448113695610151</v>
+        <v>-0.2620686196658292</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.0375411353471277</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.861415101641106</v>
+        <v>-0.6414392806031213</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.600931113863915</v>
+        <v>-1.066646700239383</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.160307624195153</v>
+        <v>-0.2627608796339382</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.03099509508167689</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.8880997411695103</v>
+        <v>-0.6837726549348504</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.613640640925991</v>
+        <v>-1.044533416183206</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2132523984609449</v>
+        <v>-0.2980923645965998</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.02311071070439286</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.027841717022642</v>
+        <v>-0.7738176841258733</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.584798102043252</v>
+        <v>-0.9943790290135361</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1866604668754063</v>
+        <v>-0.2771824540356461</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.01389088916967294</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.062718811081126</v>
+        <v>-0.7971678873144958</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.531408085683434</v>
+        <v>-0.9642428483754146</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2588787345264368</v>
+        <v>-0.3795814265342008</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.003441175477995835</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.088613603333141</v>
+        <v>-0.8857466671986163</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.602834676296045</v>
+        <v>-1.055759006238754</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2521885146231874</v>
+        <v>-0.3357525267030853</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.008533729355458177</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.271659947235385</v>
+        <v>-1.103507866259329</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.627605994661491</v>
+        <v>-1.06869542379258</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2767445309897409</v>
+        <v>-0.3651836390388861</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.02277040734071395</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.420814828892769</v>
+        <v>-1.277021759904677</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.582819519367881</v>
+        <v>-1.055994435619978</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2665564160053414</v>
+        <v>-0.3543654759954058</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.04022184882092204</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.396515589131126</v>
+        <v>-1.305670953932887</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.535556156205997</v>
+        <v>-0.9816377860762693</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3093588193374899</v>
+        <v>-0.391046105495034</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.06146396128467863</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.536719274936556</v>
+        <v>-1.448303343873127</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.577138108263973</v>
+        <v>-1.048006304516609</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3327206110189707</v>
+        <v>-0.4050694016948254</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.0867551513635493</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.657307301857091</v>
+        <v>-1.601411731357192</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.596126158772493</v>
+        <v>-1.089761474046781</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3304266993537213</v>
+        <v>-0.4092351599170146</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1159921837179098</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.689242748491619</v>
+        <v>-1.644248290247238</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.642595405213251</v>
+        <v>-1.132814554777073</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3493116732678714</v>
+        <v>-0.4260653110712005</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1487895158869519</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.683511323892218</v>
+        <v>-1.661965875986093</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.674300911752646</v>
+        <v>-1.178028584465084</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.399226361611579</v>
+        <v>-0.4988630033651417</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1838348463764105</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.697496195089374</v>
+        <v>-1.70538002975702</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.730381288217599</v>
+        <v>-1.224924775379565</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4166609441564222</v>
+        <v>-0.4855368464988734</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2200230134513061</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.729107773844549</v>
+        <v>-1.761533596703183</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.744311266553848</v>
+        <v>-1.242857053196635</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4397244846269733</v>
+        <v>-0.5305441130774661</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2559032393747281</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.606878450382885</v>
+        <v>-1.64291073420313</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.878024176517325</v>
+        <v>-1.377210379870697</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.397897344456945</v>
+        <v>-0.5077330797670887</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2909157685909438</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.648325609971299</v>
+        <v>-1.622349698269276</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.846925541051295</v>
+        <v>-1.285872928765645</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4130679014496994</v>
+        <v>-0.5062284054575512</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3243149293216953</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.691362222843319</v>
+        <v>-1.623767763842715</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.919545746428302</v>
+        <v>-1.368998407878961</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4012952125471084</v>
+        <v>-0.4875062803640929</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3552851144353411</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.615943701401391</v>
+        <v>-1.544824510809861</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.088804223511979</v>
+        <v>-1.548759109095563</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4353489136919827</v>
+        <v>-0.5398484530012577</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3836198960690002</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.654626700482783</v>
+        <v>-1.530411475297627</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.145692134952947</v>
+        <v>-1.516519921964014</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4669763503847533</v>
+        <v>-0.5738204247754478</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4091271720900895</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.586293017621961</v>
+        <v>-1.442737817697801</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.214838232155198</v>
+        <v>-1.594966089645319</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4766673800176031</v>
+        <v>-0.5680353271564924</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4321147280565815</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.441630811669503</v>
+        <v>-1.279068653695844</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.317710503098909</v>
+        <v>-1.645998152668829</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4758933906788099</v>
+        <v>-0.570374982872498</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4523472444196541</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.333011868109472</v>
+        <v>-1.13599224150293</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.341205867408598</v>
+        <v>-1.683267355621519</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.449544207522617</v>
+        <v>-0.5259819064153907</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4700472066874096</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.194647093144438</v>
+        <v>-1.032203259782067</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.355280396945236</v>
+        <v>-1.704568225336268</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3780462561908259</v>
+        <v>-0.4639212577149222</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4843005824265196</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.006806772722955</v>
+        <v>-0.8439713702861116</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.39420309485259</v>
+        <v>-1.78432023318649</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4000528041285726</v>
+        <v>-0.4521851640529361</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.495665511611724</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8004449911106631</v>
+        <v>-0.6253904378358496</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.352567469775061</v>
+        <v>-1.726347272861587</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3715390124906009</v>
+        <v>-0.4318565078969233</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5042071113571343</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6267066466562718</v>
+        <v>-0.4677045956727904</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.514594117394536</v>
+        <v>-1.907716944823451</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2935667531751291</v>
+        <v>-0.3575651198656261</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.510854065103937</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3035108998888295</v>
+        <v>-0.1662208051562254</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.532759384910123</v>
+        <v>-1.878424894401948</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2680787780145046</v>
+        <v>-0.3236687782553528</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5168603926739764</v>
       </c>
       <c r="E82" t="n">
-        <v>0.08368565325181689</v>
+        <v>0.1359088913570158</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.549666386069579</v>
+        <v>-1.926142648468009</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.175225064107057</v>
+        <v>-0.2033875414352218</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5225636150341683</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2371264475047096</v>
+        <v>0.3282748231999696</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.560502236812685</v>
+        <v>-1.952825458234383</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.08907742804045427</v>
+        <v>-0.1303214840435114</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5282925931190119</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5218386392520565</v>
+        <v>0.5926254230747594</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.477317595393725</v>
+        <v>-1.888503223664533</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.06521001211794926</v>
+        <v>-0.06960449059391902</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.533518111809568</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7011766654396717</v>
+        <v>0.7432069091950572</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.453758799333654</v>
+        <v>-1.898637665629379</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.02050038682960963</v>
+        <v>-0.0163779329754695</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5375463348918845</v>
       </c>
       <c r="E86" t="n">
-        <v>1.005980864120453</v>
+        <v>1.041331256624094</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.486973249627323</v>
+        <v>-1.889095456641656</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.02130243251953332</v>
+        <v>-0.02169705119738932</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5375136692624849</v>
       </c>
       <c r="E87" t="n">
-        <v>1.185999561783319</v>
+        <v>1.215695379692829</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.395621160426029</v>
+        <v>-1.830125885930946</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0559641485729409</v>
+        <v>0.06546854247870589</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.531090007212814</v>
       </c>
       <c r="E88" t="n">
-        <v>1.400081109401211</v>
+        <v>1.405358143096435</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.298299167640725</v>
+        <v>-1.774993326197659</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08037622365978192</v>
+        <v>0.1250272965631538</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5162381830943673</v>
       </c>
       <c r="E89" t="n">
-        <v>1.447287749940157</v>
+        <v>1.456892170836909</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.091813572131054</v>
+        <v>-1.59630120600672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1285831341085949</v>
+        <v>0.124636947330035</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4929137180413045</v>
       </c>
       <c r="E90" t="n">
-        <v>1.479263451339351</v>
+        <v>1.532229572828829</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.940223887132092</v>
+        <v>-1.54441769371847</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1136175104632278</v>
+        <v>0.1483134580807179</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4628457312382368</v>
       </c>
       <c r="E91" t="n">
-        <v>1.554945458513634</v>
+        <v>1.613659472460785</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.585966710059901</v>
+        <v>-1.24791634521026</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1254536311162006</v>
+        <v>0.1704749258703585</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4288848591871622</v>
       </c>
       <c r="E92" t="n">
-        <v>1.622375848852192</v>
+        <v>1.685229394432433</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.312983902847096</v>
+        <v>-0.9950932461260081</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1213189788485255</v>
+        <v>0.2166434814174795</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3946460147334736</v>
       </c>
       <c r="E93" t="n">
-        <v>1.681791881498281</v>
+        <v>1.74251314439261</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.042819539081544</v>
+        <v>-0.7713304276060946</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1599281775280311</v>
+        <v>0.2069603807534274</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3628459057327074</v>
       </c>
       <c r="E94" t="n">
-        <v>1.749960885776381</v>
+        <v>1.824529787715598</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7747606214921258</v>
+        <v>-0.5718058567801489</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1509922296929953</v>
+        <v>0.1628442082835636</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3360072160400261</v>
       </c>
       <c r="E95" t="n">
-        <v>1.755235479788898</v>
+        <v>1.823491092803096</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5429590484526728</v>
+        <v>-0.3907679816664369</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1200289966172034</v>
+        <v>0.1628088328843122</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3135315632789208</v>
       </c>
       <c r="E96" t="n">
-        <v>1.713895666239591</v>
+        <v>1.868749646700509</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3430551069657898</v>
+        <v>-0.2240248174536691</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04093387333583851</v>
+        <v>0.09401526983322199</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2943961912179274</v>
       </c>
       <c r="E97" t="n">
-        <v>1.619435421269589</v>
+        <v>1.775964243908857</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1660036733953031</v>
+        <v>-0.05390452245374727</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0494965497167045</v>
+        <v>0.1148221037998052</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2749113122162044</v>
       </c>
       <c r="E98" t="n">
-        <v>1.55222277261263</v>
+        <v>1.709399940931281</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04103031680894926</v>
+        <v>0.06134364894185877</v>
       </c>
       <c r="G98" t="n">
-        <v>0.005529197891967243</v>
+        <v>0.07249116915078303</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2535773184483376</v>
       </c>
       <c r="E99" t="n">
-        <v>1.45984784643643</v>
+        <v>1.603207261823354</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07522117409990733</v>
+        <v>0.1416250679394986</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.03276589163901307</v>
+        <v>0.03052923651119339</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2280244266117247</v>
       </c>
       <c r="E100" t="n">
-        <v>1.263273461923915</v>
+        <v>1.449945174328748</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1302634655730358</v>
+        <v>0.1781233311567792</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01178271459066508</v>
+        <v>0.07109445080102998</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2020204693262267</v>
       </c>
       <c r="E101" t="n">
-        <v>1.131411051293691</v>
+        <v>1.316628102884481</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2007397997712739</v>
+        <v>0.2358358553527107</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1065235990781557</v>
+        <v>-0.03707254153753111</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1751933217006593</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9315424852060598</v>
+        <v>1.14259333698119</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1957610172869795</v>
+        <v>0.2215972571540273</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07974869128959272</v>
+        <v>-0.01007013333654109</v>
       </c>
     </row>
   </sheetData>
